--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V5.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V5.xlsx
@@ -155,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="76">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -168,6 +168,13 @@
       <right/>
       <top/>
       <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -195,6 +202,20 @@
       <left/>
       <right style="hair"/>
       <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -248,15 +269,8 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -308,13 +322,6 @@
       <right style="hair"/>
       <top style="medium"/>
       <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -494,13 +501,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right style="dotted"/>
       <top style="thin"/>
       <bottom/>
@@ -539,13 +539,6 @@
       <right style="hair"/>
       <top style="thin"/>
       <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -682,17 +675,17 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="dotted"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -748,7 +741,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,30 +775,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -817,67 +810,75 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="14" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="5" fillId="3" borderId="11" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="8" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="15" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="12" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="14" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="2" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="15" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="17" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="16" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="18" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="17" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="19" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="16" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="18" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="19" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="21" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="22" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="23" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="7" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -886,23 +887,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="25" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="26" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="24" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="25" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="27" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="28" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -921,19 +922,23 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="34" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="34" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="35" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -941,23 +946,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="37" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -965,11 +954,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="39" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -977,11 +982,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="41" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="42" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -989,16 +994,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="37" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="38" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1009,15 +1010,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="45" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="46" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1025,7 +1026,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1037,7 +1042,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="33" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="34" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1057,7 +1062,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1065,51 +1070,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="39" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="38" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1121,7 +1126,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="33" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="34" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1129,11 +1138,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1141,15 +1154,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1157,15 +1162,51 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1173,71 +1214,35 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1253,43 +1258,43 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="70" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1297,44 +1302,40 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="71" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="74" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="74" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="75" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="76" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="75" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1428,9 +1429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>378360</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1439,8 +1440,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4644000" y="622080"/>
-          <a:ext cx="268200" cy="265320"/>
+          <a:off x="4637520" y="622080"/>
+          <a:ext cx="267840" cy="264960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1473,11 +1474,11 @@
   </sheetPr>
   <dimension ref="A1:AJ997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="6.42"/>
   </cols>
@@ -1585,29 +1586,29 @@
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="12"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -1622,30 +1623,30 @@
       <c r="AJ4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="5"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="12"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
@@ -1660,30 +1661,30 @@
       <c r="AJ5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="5"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="12"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -1698,32 +1699,32 @@
       <c r="AJ6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="5"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="12"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
@@ -1738,30 +1739,30 @@
       <c r="AJ7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="5"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="12"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
@@ -1776,30 +1777,30 @@
       <c r="AJ8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="5"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="12"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
@@ -1814,30 +1815,30 @@
       <c r="AJ9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="5"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="12"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
@@ -1852,30 +1853,30 @@
       <c r="AJ10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="5"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="12"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
@@ -1890,30 +1891,30 @@
       <c r="AJ11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="43"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="5"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="12"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -1928,30 +1929,30 @@
       <c r="AJ12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="43"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="5"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="12"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
@@ -1966,30 +1967,30 @@
       <c r="AJ13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="5"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="12"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
@@ -2004,30 +2005,30 @@
       <c r="AJ14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="5"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="12"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
@@ -2042,30 +2043,30 @@
       <c r="AJ15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="5"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="12"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
@@ -2080,30 +2081,30 @@
       <c r="AJ16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="5"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="12"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
@@ -2118,30 +2119,30 @@
       <c r="AJ17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="43"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="5"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="12"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
@@ -2156,30 +2157,30 @@
       <c r="AJ18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="5"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="12"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
@@ -2194,30 +2195,30 @@
       <c r="AJ19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="5"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="12"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
@@ -2232,30 +2233,30 @@
       <c r="AJ20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="5"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="12"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
@@ -2270,30 +2271,30 @@
       <c r="AJ21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="5"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="12"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -2308,30 +2309,30 @@
       <c r="AJ22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="43"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="5"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="12"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
@@ -2346,30 +2347,30 @@
       <c r="AJ23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="43"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="5"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="12"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
@@ -2384,30 +2385,30 @@
       <c r="AJ24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="43"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="5"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="12"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
@@ -2422,30 +2423,30 @@
       <c r="AJ25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="43"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="5"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="12"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
@@ -2460,30 +2461,30 @@
       <c r="AJ26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="43"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="5"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="12"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -2498,30 +2499,30 @@
       <c r="AJ27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="43"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="5"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="12"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
@@ -2536,30 +2537,30 @@
       <c r="AJ28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="43"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="5"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="12"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
@@ -2574,30 +2575,30 @@
       <c r="AJ29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="43"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="5"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="12"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
@@ -2612,30 +2613,30 @@
       <c r="AJ30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="43"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="5"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="12"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
@@ -2650,30 +2651,30 @@
       <c r="AJ31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="43"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="5"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="12"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
@@ -2688,30 +2689,30 @@
       <c r="AJ32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="43"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="5"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="12"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
@@ -2726,30 +2727,30 @@
       <c r="AJ33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="43"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="124"/>
-      <c r="N34" s="124"/>
-      <c r="O34" s="124"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="124"/>
-      <c r="R34" s="124"/>
-      <c r="S34" s="124"/>
-      <c r="T34" s="124"/>
-      <c r="U34" s="124"/>
-      <c r="V34" s="124"/>
-      <c r="W34" s="125"/>
-      <c r="X34" s="5"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
+      <c r="O34" s="127"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="127"/>
+      <c r="S34" s="127"/>
+      <c r="T34" s="127"/>
+      <c r="U34" s="127"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="128"/>
+      <c r="X34" s="12"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
@@ -2764,30 +2765,30 @@
       <c r="AJ34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="43"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="129"/>
-      <c r="X35" s="5"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="131"/>
+      <c r="R35" s="131"/>
+      <c r="S35" s="131"/>
+      <c r="T35" s="131"/>
+      <c r="U35" s="131"/>
+      <c r="V35" s="131"/>
+      <c r="W35" s="132"/>
+      <c r="X35" s="12"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
@@ -2802,30 +2803,30 @@
       <c r="AJ35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="43"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="5"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="12"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
@@ -2840,30 +2841,30 @@
       <c r="AJ36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="43"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="132"/>
-      <c r="Q37" s="132"/>
-      <c r="R37" s="132"/>
-      <c r="S37" s="132"/>
-      <c r="T37" s="132"/>
-      <c r="U37" s="132"/>
-      <c r="V37" s="132"/>
-      <c r="W37" s="133"/>
-      <c r="X37" s="5"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
+      <c r="N37" s="135"/>
+      <c r="O37" s="135"/>
+      <c r="P37" s="135"/>
+      <c r="Q37" s="135"/>
+      <c r="R37" s="135"/>
+      <c r="S37" s="135"/>
+      <c r="T37" s="135"/>
+      <c r="U37" s="135"/>
+      <c r="V37" s="135"/>
+      <c r="W37" s="136"/>
+      <c r="X37" s="12"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
@@ -2878,30 +2879,30 @@
       <c r="AJ37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="43"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="5"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="78"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="12"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
@@ -2916,30 +2917,30 @@
       <c r="AJ38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="43"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="5"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="12"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
@@ -2954,30 +2955,30 @@
       <c r="AJ39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="43"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="5"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="12"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
@@ -2992,30 +2993,30 @@
       <c r="AJ40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="43"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="5"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="12"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
@@ -3030,30 +3031,30 @@
       <c r="AJ41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="43"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="75"/>
-      <c r="U42" s="75"/>
-      <c r="V42" s="75"/>
-      <c r="W42" s="76"/>
-      <c r="X42" s="5"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="78"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="78"/>
+      <c r="W42" s="79"/>
+      <c r="X42" s="12"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
@@ -3068,30 +3069,30 @@
       <c r="AJ42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="43"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="42"/>
-      <c r="X43" s="5"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="12"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
@@ -3106,30 +3107,30 @@
       <c r="AJ43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="43"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="5"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="12"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
@@ -3144,30 +3145,30 @@
       <c r="AJ44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="43"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="5"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="12"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
@@ -3182,30 +3183,30 @@
       <c r="AJ45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="43"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
-      <c r="T46" s="75"/>
-      <c r="U46" s="75"/>
-      <c r="V46" s="75"/>
-      <c r="W46" s="76"/>
-      <c r="X46" s="5"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="78"/>
+      <c r="T46" s="78"/>
+      <c r="U46" s="78"/>
+      <c r="V46" s="78"/>
+      <c r="W46" s="79"/>
+      <c r="X46" s="12"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
@@ -3220,30 +3221,30 @@
       <c r="AJ46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="43"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="5"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="12"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
@@ -3258,30 +3259,30 @@
       <c r="AJ47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="43"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="5"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="12"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
@@ -3296,30 +3297,30 @@
       <c r="AJ48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="43"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="120"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="42"/>
-      <c r="X49" s="5"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="12"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
@@ -3334,30 +3335,30 @@
       <c r="AJ49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="43"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="75"/>
-      <c r="S50" s="75"/>
-      <c r="T50" s="75"/>
-      <c r="U50" s="75"/>
-      <c r="V50" s="75"/>
-      <c r="W50" s="76"/>
-      <c r="X50" s="5"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="78"/>
+      <c r="W50" s="79"/>
+      <c r="X50" s="12"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
@@ -3372,30 +3373,30 @@
       <c r="AJ50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="43"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="141"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="5"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="12"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
@@ -3410,30 +3411,30 @@
       <c r="AJ51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="43"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="V52" s="51"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="5"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="110"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="12"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
@@ -3448,30 +3449,30 @@
       <c r="AJ52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="79"/>
-      <c r="B53" s="142"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="139"/>
-      <c r="M53" s="139"/>
-      <c r="N53" s="139"/>
-      <c r="O53" s="139"/>
-      <c r="P53" s="139"/>
-      <c r="Q53" s="139"/>
-      <c r="R53" s="139"/>
-      <c r="S53" s="139"/>
-      <c r="T53" s="139"/>
-      <c r="U53" s="139"/>
-      <c r="V53" s="139"/>
-      <c r="W53" s="133"/>
-      <c r="X53" s="5"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="147"/>
+      <c r="L53" s="142"/>
+      <c r="M53" s="142"/>
+      <c r="N53" s="142"/>
+      <c r="O53" s="142"/>
+      <c r="P53" s="142"/>
+      <c r="Q53" s="142"/>
+      <c r="R53" s="142"/>
+      <c r="S53" s="142"/>
+      <c r="T53" s="142"/>
+      <c r="U53" s="142"/>
+      <c r="V53" s="142"/>
+      <c r="W53" s="136"/>
+      <c r="X53" s="12"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
@@ -3488,7 +3489,7 @@
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="148"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V5.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V5.xlsx
@@ -209,20 +209,6 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -322,6 +308,13 @@
       <right style="hair"/>
       <top style="medium"/>
       <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -542,6 +535,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
@@ -741,7 +741,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="148">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -790,15 +790,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -814,27 +818,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="12" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="9" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="14" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="13" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="11" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="15" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -842,43 +838,47 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="17" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="15" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="18" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="16" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="19" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="17" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="18" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="16" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="21" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="19" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="7" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="22" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="23" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -887,23 +887,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="25" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="24" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="27" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="26" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="25" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="28" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -922,19 +922,23 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="34" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="34" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="35" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -942,11 +946,19 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="37" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -954,27 +966,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="39" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -982,11 +978,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="42" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="41" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -994,12 +990,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="38" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="37" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1010,15 +1010,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="45" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="46" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1026,28 +1026,28 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="33" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="34" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1058,11 +1058,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1070,7 +1066,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1086,7 +1082,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="39" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="38" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1118,15 +1114,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="34" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="33" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1138,7 +1134,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1146,7 +1142,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1154,11 +1150,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1170,7 +1166,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1178,11 +1174,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1218,23 +1214,23 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1246,6 +1242,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -1254,23 +1254,19 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1282,7 +1278,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1290,15 +1286,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1423,15 +1419,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>110160</xdr:colOff>
+      <xdr:colOff>38160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1440,8 +1436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4637520" y="622080"/>
-          <a:ext cx="267840" cy="264960"/>
+          <a:off x="3956040" y="623880"/>
+          <a:ext cx="265680" cy="261000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1474,13 +1470,13 @@
   </sheetPr>
   <dimension ref="A1:AJ997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="5.55"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1625,27 +1621,27 @@
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="22"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="21"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
@@ -1661,29 +1657,29 @@
       <c r="AJ5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
@@ -1699,31 +1695,31 @@
       <c r="AJ6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="33"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
@@ -1739,29 +1735,29 @@
       <c r="AJ7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="45"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="44"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -1777,29 +1773,29 @@
       <c r="AJ8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="55"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="54"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -1815,29 +1811,29 @@
       <c r="AJ9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="58"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="57"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -1853,29 +1849,29 @@
       <c r="AJ10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
@@ -1891,29 +1887,29 @@
       <c r="AJ11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="71"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="70"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
@@ -1929,29 +1925,29 @@
       <c r="AJ12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="79"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="78"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -1967,29 +1963,29 @@
       <c r="AJ13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="90"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="89"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
@@ -2005,29 +2001,29 @@
       <c r="AJ14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="93"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="92"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
@@ -2043,29 +2039,29 @@
       <c r="AJ15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="79"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="78"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
@@ -2081,29 +2077,29 @@
       <c r="AJ16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="102"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="100"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="101"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
@@ -2119,29 +2115,29 @@
       <c r="AJ17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="79"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="78"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
@@ -2157,29 +2153,29 @@
       <c r="AJ18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="45"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="44"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
@@ -2195,29 +2191,29 @@
       <c r="AJ19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="54"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -2233,29 +2229,29 @@
       <c r="AJ20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="45"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="44"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
@@ -2271,29 +2267,29 @@
       <c r="AJ21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="79"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="78"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
@@ -2309,29 +2305,29 @@
       <c r="AJ22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="45"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="44"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
@@ -2347,29 +2343,29 @@
       <c r="AJ23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="55"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="54"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
@@ -2385,29 +2381,29 @@
       <c r="AJ24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="45"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="44"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
@@ -2423,29 +2419,29 @@
       <c r="AJ25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="46"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="79"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="78"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
@@ -2461,29 +2457,29 @@
       <c r="AJ26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="46"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="45"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="44"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
@@ -2499,29 +2495,29 @@
       <c r="AJ27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="55"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="54"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
@@ -2537,29 +2533,29 @@
       <c r="AJ28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="46"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="45"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="44"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
@@ -2575,29 +2571,29 @@
       <c r="AJ29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="46"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="79"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="78"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
@@ -2613,29 +2609,29 @@
       <c r="AJ30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="45"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="44"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
@@ -2651,29 +2647,29 @@
       <c r="AJ31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="55"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="54"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
@@ -2689,29 +2685,29 @@
       <c r="AJ32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="45"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="44"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
@@ -2727,29 +2723,29 @@
       <c r="AJ33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="127"/>
-      <c r="M34" s="127"/>
-      <c r="N34" s="127"/>
-      <c r="O34" s="127"/>
-      <c r="P34" s="127"/>
-      <c r="Q34" s="127"/>
-      <c r="R34" s="127"/>
-      <c r="S34" s="127"/>
-      <c r="T34" s="127"/>
-      <c r="U34" s="127"/>
-      <c r="V34" s="127"/>
-      <c r="W34" s="128"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="126"/>
+      <c r="N34" s="126"/>
+      <c r="O34" s="126"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="126"/>
+      <c r="S34" s="126"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="126"/>
+      <c r="W34" s="127"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
@@ -2765,29 +2761,29 @@
       <c r="AJ34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="131"/>
-      <c r="O35" s="131"/>
-      <c r="P35" s="131"/>
-      <c r="Q35" s="131"/>
-      <c r="R35" s="131"/>
-      <c r="S35" s="131"/>
-      <c r="T35" s="131"/>
-      <c r="U35" s="131"/>
-      <c r="V35" s="131"/>
-      <c r="W35" s="132"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="131"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
@@ -2803,29 +2799,29 @@
       <c r="AJ35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="55"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="54"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
@@ -2841,29 +2837,29 @@
       <c r="AJ36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="46"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
-      <c r="N37" s="135"/>
-      <c r="O37" s="135"/>
-      <c r="P37" s="135"/>
-      <c r="Q37" s="135"/>
-      <c r="R37" s="135"/>
-      <c r="S37" s="135"/>
-      <c r="T37" s="135"/>
-      <c r="U37" s="135"/>
-      <c r="V37" s="135"/>
-      <c r="W37" s="136"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="134"/>
+      <c r="P37" s="134"/>
+      <c r="Q37" s="134"/>
+      <c r="R37" s="134"/>
+      <c r="S37" s="134"/>
+      <c r="T37" s="134"/>
+      <c r="U37" s="134"/>
+      <c r="V37" s="134"/>
+      <c r="W37" s="135"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
@@ -2879,29 +2875,29 @@
       <c r="AJ37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="78"/>
-      <c r="V38" s="78"/>
-      <c r="W38" s="79"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="78"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
@@ -2917,29 +2913,29 @@
       <c r="AJ38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="45"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="44"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
@@ -2955,29 +2951,29 @@
       <c r="AJ39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="46"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="55"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="54"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
@@ -2993,29 +2989,29 @@
       <c r="AJ40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="46"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="45"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="44"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
@@ -3031,29 +3027,29 @@
       <c r="AJ41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="46"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="78"/>
-      <c r="V42" s="78"/>
-      <c r="W42" s="79"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="77"/>
+      <c r="W42" s="78"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
@@ -3069,29 +3065,29 @@
       <c r="AJ42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="46"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="45"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="44"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
@@ -3107,29 +3103,29 @@
       <c r="AJ43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="46"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="55"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="54"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
@@ -3145,29 +3141,29 @@
       <c r="AJ44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="46"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="45"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="44"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
@@ -3183,29 +3179,29 @@
       <c r="AJ45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="46"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="78"/>
-      <c r="S46" s="78"/>
-      <c r="T46" s="78"/>
-      <c r="U46" s="78"/>
-      <c r="V46" s="78"/>
-      <c r="W46" s="79"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="77"/>
+      <c r="U46" s="77"/>
+      <c r="V46" s="77"/>
+      <c r="W46" s="78"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
@@ -3221,29 +3217,29 @@
       <c r="AJ46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="46"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="45"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="44"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
@@ -3259,29 +3255,29 @@
       <c r="AJ47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="46"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="141"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="55"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="54"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
@@ -3297,29 +3293,29 @@
       <c r="AJ48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="46"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="109"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="42"/>
-      <c r="W49" s="45"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="44"/>
       <c r="X49" s="12"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
@@ -3335,29 +3331,29 @@
       <c r="AJ49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="46"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="78"/>
-      <c r="W50" s="79"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="142"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="77"/>
+      <c r="S50" s="77"/>
+      <c r="T50" s="77"/>
+      <c r="U50" s="77"/>
+      <c r="V50" s="77"/>
+      <c r="W50" s="78"/>
       <c r="X50" s="12"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
@@ -3373,29 +3369,29 @@
       <c r="AJ50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="46"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="109"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
-      <c r="W51" s="45"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="143"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="44"/>
       <c r="X51" s="12"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
@@ -3411,29 +3407,29 @@
       <c r="AJ51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="46"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="110"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="55"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="54"/>
       <c r="X52" s="12"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
@@ -3449,29 +3445,29 @@
       <c r="AJ52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="82"/>
-      <c r="B53" s="145"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="123"/>
-      <c r="J53" s="146"/>
-      <c r="K53" s="147"/>
-      <c r="L53" s="142"/>
-      <c r="M53" s="142"/>
-      <c r="N53" s="142"/>
-      <c r="O53" s="142"/>
-      <c r="P53" s="142"/>
-      <c r="Q53" s="142"/>
-      <c r="R53" s="142"/>
-      <c r="S53" s="142"/>
-      <c r="T53" s="142"/>
-      <c r="U53" s="142"/>
-      <c r="V53" s="142"/>
-      <c r="W53" s="136"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="122"/>
+      <c r="J53" s="145"/>
+      <c r="K53" s="146"/>
+      <c r="L53" s="141"/>
+      <c r="M53" s="141"/>
+      <c r="N53" s="141"/>
+      <c r="O53" s="141"/>
+      <c r="P53" s="141"/>
+      <c r="Q53" s="141"/>
+      <c r="R53" s="141"/>
+      <c r="S53" s="141"/>
+      <c r="T53" s="141"/>
+      <c r="U53" s="141"/>
+      <c r="V53" s="141"/>
+      <c r="W53" s="135"/>
       <c r="X53" s="12"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
@@ -3489,7 +3485,7 @@
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="148"/>
+      <c r="C54" s="147"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V5.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V5.xlsx
@@ -741,7 +741,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1334,6 +1334,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="45" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="64" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1425,9 +1433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>302760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1437,7 +1445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3956040" y="623880"/>
-          <a:ext cx="265680" cy="261000"/>
+          <a:ext cx="264600" cy="259920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3521,29 +3529,29 @@
       <c r="AJ54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
+      <c r="A55" s="148"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="149"/>
+      <c r="F55" s="149"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="149"/>
+      <c r="J55" s="149"/>
+      <c r="K55" s="149"/>
+      <c r="L55" s="149"/>
+      <c r="M55" s="149"/>
+      <c r="N55" s="149"/>
+      <c r="O55" s="149"/>
+      <c r="P55" s="149"/>
+      <c r="Q55" s="149"/>
+      <c r="R55" s="149"/>
+      <c r="S55" s="149"/>
+      <c r="T55" s="149"/>
+      <c r="U55" s="149"/>
+      <c r="V55" s="149"/>
+      <c r="W55" s="149"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
@@ -3559,29 +3567,29 @@
       <c r="AJ55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
+      <c r="A56" s="148"/>
+      <c r="B56" s="148"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="149"/>
+      <c r="F56" s="149"/>
+      <c r="G56" s="149"/>
+      <c r="H56" s="149"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="149"/>
+      <c r="K56" s="149"/>
+      <c r="L56" s="149"/>
+      <c r="M56" s="149"/>
+      <c r="N56" s="149"/>
+      <c r="O56" s="149"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="149"/>
+      <c r="R56" s="149"/>
+      <c r="S56" s="149"/>
+      <c r="T56" s="149"/>
+      <c r="U56" s="149"/>
+      <c r="V56" s="149"/>
+      <c r="W56" s="149"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
@@ -38504,7 +38512,7 @@
     <row r="996" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="997" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="E4:I4"/>
@@ -38526,6 +38534,8 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="C55:W56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
